--- a/Team-Data/2011-12/3-12-2011-12.xlsx
+++ b/Team-Data/2011-12/3-12-2011-12.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,16 +811,16 @@
         <v>1.8</v>
       </c>
       <c r="AD2" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AE2" t="n">
         <v>8</v>
       </c>
       <c r="AF2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH2" t="n">
         <v>3</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-12-2011-12</t>
+          <t>2012-03-12</t>
         </is>
       </c>
     </row>
@@ -848,94 +915,94 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F3" t="n">
         <v>19</v>
       </c>
       <c r="G3" t="n">
-        <v>0.537</v>
+        <v>0.525</v>
       </c>
       <c r="H3" t="n">
         <v>48.4</v>
       </c>
       <c r="I3" t="n">
-        <v>34.9</v>
+        <v>35</v>
       </c>
       <c r="J3" t="n">
-        <v>76.90000000000001</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>0.454</v>
+        <v>0.453</v>
       </c>
       <c r="L3" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="M3" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="N3" t="n">
         <v>0.367</v>
       </c>
       <c r="O3" t="n">
-        <v>15.5</v>
+        <v>15.3</v>
       </c>
       <c r="P3" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.766</v>
+        <v>0.763</v>
       </c>
       <c r="R3" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="S3" t="n">
-        <v>30.2</v>
+        <v>30.4</v>
       </c>
       <c r="T3" t="n">
-        <v>38.6</v>
+        <v>38.8</v>
       </c>
       <c r="U3" t="n">
         <v>23</v>
       </c>
       <c r="V3" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="W3" t="n">
         <v>7</v>
       </c>
       <c r="X3" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Z3" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="AA3" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="AB3" t="n">
-        <v>91</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="AC3" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="AD3" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AE3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AF3" t="n">
         <v>12</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH3" t="n">
         <v>9</v>
@@ -959,13 +1026,13 @@
         <v>8</v>
       </c>
       <c r="AO3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AP3" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AQ3" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AR3" t="n">
         <v>30</v>
@@ -980,19 +1047,19 @@
         <v>3</v>
       </c>
       <c r="AV3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AW3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AX3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AY3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BA3" t="n">
         <v>21</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-12-2011-12</t>
+          <t>2012-03-12</t>
         </is>
       </c>
     </row>
@@ -1030,64 +1097,64 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F4" t="n">
         <v>34</v>
       </c>
       <c r="G4" t="n">
-        <v>0.15</v>
+        <v>0.128</v>
       </c>
       <c r="H4" t="n">
         <v>48.1</v>
       </c>
       <c r="I4" t="n">
-        <v>33.5</v>
+        <v>33.4</v>
       </c>
       <c r="J4" t="n">
         <v>80.7</v>
       </c>
       <c r="K4" t="n">
-        <v>0.415</v>
+        <v>0.414</v>
       </c>
       <c r="L4" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="M4" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="N4" t="n">
-        <v>0.299</v>
+        <v>0.305</v>
       </c>
       <c r="O4" t="n">
-        <v>15.8</v>
+        <v>16</v>
       </c>
       <c r="P4" t="n">
-        <v>21.5</v>
+        <v>21.8</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.733</v>
+        <v>0.734</v>
       </c>
       <c r="R4" t="n">
-        <v>10.7</v>
+        <v>10.6</v>
       </c>
       <c r="S4" t="n">
-        <v>29.4</v>
+        <v>29.3</v>
       </c>
       <c r="T4" t="n">
-        <v>40.1</v>
+        <v>39.9</v>
       </c>
       <c r="U4" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="V4" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="W4" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="X4" t="n">
         <v>5.9</v>
@@ -1096,19 +1163,19 @@
         <v>6</v>
       </c>
       <c r="Z4" t="n">
-        <v>19.4</v>
+        <v>19.6</v>
       </c>
       <c r="AA4" t="n">
-        <v>19.8</v>
+        <v>20</v>
       </c>
       <c r="AB4" t="n">
-        <v>86.8</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="AC4" t="n">
-        <v>-13.3</v>
+        <v>-13.6</v>
       </c>
       <c r="AD4" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AE4" t="n">
         <v>30</v>
@@ -1138,34 +1205,34 @@
         <v>26</v>
       </c>
       <c r="AN4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AO4" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AP4" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AQ4" t="n">
         <v>23</v>
       </c>
       <c r="AR4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AS4" t="n">
         <v>27</v>
       </c>
       <c r="AT4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AU4" t="n">
         <v>21</v>
       </c>
       <c r="AV4" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AW4" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AX4" t="n">
         <v>3</v>
@@ -1174,10 +1241,10 @@
         <v>26</v>
       </c>
       <c r="AZ4" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BA4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BB4" t="n">
         <v>30</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-12-2011-12</t>
+          <t>2012-03-12</t>
         </is>
       </c>
     </row>
@@ -1212,55 +1279,55 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E5" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F5" t="n">
         <v>9</v>
       </c>
       <c r="G5" t="n">
-        <v>0.795</v>
+        <v>0.791</v>
       </c>
       <c r="H5" t="n">
         <v>48</v>
       </c>
       <c r="I5" t="n">
-        <v>38.1</v>
+        <v>38</v>
       </c>
       <c r="J5" t="n">
-        <v>82.5</v>
+        <v>82.3</v>
       </c>
       <c r="K5" t="n">
-        <v>0.461</v>
+        <v>0.462</v>
       </c>
       <c r="L5" t="n">
         <v>6.1</v>
       </c>
       <c r="M5" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="N5" t="n">
         <v>0.382</v>
       </c>
       <c r="O5" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="P5" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.726</v>
+        <v>0.727</v>
       </c>
       <c r="R5" t="n">
-        <v>13.6</v>
+        <v>13.4</v>
       </c>
       <c r="S5" t="n">
         <v>32.3</v>
       </c>
       <c r="T5" t="n">
-        <v>45.9</v>
+        <v>45.7</v>
       </c>
       <c r="U5" t="n">
         <v>23.5</v>
@@ -1275,19 +1342,19 @@
         <v>5.7</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Z5" t="n">
-        <v>17.6</v>
+        <v>17.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>17.8</v>
+        <v>17.7</v>
       </c>
       <c r="AB5" t="n">
-        <v>98.09999999999999</v>
+        <v>98</v>
       </c>
       <c r="AC5" t="n">
-        <v>9.199999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AD5" t="n">
         <v>1</v>
@@ -1308,10 +1375,10 @@
         <v>3</v>
       </c>
       <c r="AJ5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AK5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AL5" t="n">
         <v>18</v>
@@ -1323,10 +1390,10 @@
         <v>5</v>
       </c>
       <c r="AO5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP5" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AQ5" t="n">
         <v>24</v>
@@ -1338,7 +1405,7 @@
         <v>5</v>
       </c>
       <c r="AT5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU5" t="n">
         <v>1</v>
@@ -1353,7 +1420,7 @@
         <v>4</v>
       </c>
       <c r="AY5" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AZ5" t="n">
         <v>2</v>
@@ -1362,7 +1429,7 @@
         <v>29</v>
       </c>
       <c r="BB5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BC5" t="n">
         <v>1</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-12-2011-12</t>
+          <t>2012-03-12</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>-3.7</v>
       </c>
       <c r="AD6" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AE6" t="n">
         <v>23</v>
@@ -1490,10 +1557,10 @@
         <v>23</v>
       </c>
       <c r="AJ6" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AK6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL6" t="n">
         <v>8</v>
@@ -1526,7 +1593,7 @@
         <v>19</v>
       </c>
       <c r="AV6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AW6" t="n">
         <v>16</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-12-2011-12</t>
+          <t>2012-03-12</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>1.8</v>
       </c>
       <c r="AD7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE7" t="n">
         <v>10</v>
@@ -1663,19 +1730,19 @@
         <v>14</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH7" t="n">
         <v>15</v>
       </c>
       <c r="AI7" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL7" t="n">
         <v>6</v>
@@ -1693,7 +1760,7 @@
         <v>23</v>
       </c>
       <c r="AQ7" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AR7" t="n">
         <v>20</v>
@@ -1723,7 +1790,7 @@
         <v>9</v>
       </c>
       <c r="BA7" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BB7" t="n">
         <v>22</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-12-2011-12</t>
+          <t>2012-03-12</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>2.7</v>
       </c>
       <c r="AD8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE8" t="n">
         <v>10</v>
@@ -1866,7 +1933,7 @@
         <v>8</v>
       </c>
       <c r="AN8" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO8" t="n">
         <v>2</v>
@@ -1902,7 +1969,7 @@
         <v>30</v>
       </c>
       <c r="AZ8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA8" t="n">
         <v>1</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-12-2011-12</t>
+          <t>2012-03-12</t>
         </is>
       </c>
     </row>
@@ -1940,16 +2007,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
       </c>
       <c r="F9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G9" t="n">
-        <v>0.357</v>
+        <v>0.366</v>
       </c>
       <c r="H9" t="n">
         <v>48.2</v>
@@ -1958,10 +2025,10 @@
         <v>34.1</v>
       </c>
       <c r="J9" t="n">
-        <v>79</v>
+        <v>79.2</v>
       </c>
       <c r="K9" t="n">
-        <v>0.431</v>
+        <v>0.43</v>
       </c>
       <c r="L9" t="n">
         <v>4.1</v>
@@ -1970,55 +2037,55 @@
         <v>12.7</v>
       </c>
       <c r="N9" t="n">
-        <v>0.323</v>
+        <v>0.324</v>
       </c>
       <c r="O9" t="n">
-        <v>17.1</v>
+        <v>17</v>
       </c>
       <c r="P9" t="n">
-        <v>22.3</v>
+        <v>22.1</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.766</v>
+        <v>0.769</v>
       </c>
       <c r="R9" t="n">
-        <v>12</v>
+        <v>12.2</v>
       </c>
       <c r="S9" t="n">
-        <v>28</v>
+        <v>28.1</v>
       </c>
       <c r="T9" t="n">
-        <v>40</v>
+        <v>40.3</v>
       </c>
       <c r="U9" t="n">
         <v>18.6</v>
       </c>
       <c r="V9" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="W9" t="n">
         <v>6.9</v>
       </c>
       <c r="X9" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="Y9" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="Z9" t="n">
         <v>19.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="AB9" t="n">
-        <v>89.40000000000001</v>
+        <v>89.3</v>
       </c>
       <c r="AC9" t="n">
-        <v>-6</v>
+        <v>-5.8</v>
       </c>
       <c r="AD9" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AE9" t="n">
         <v>24</v>
@@ -2030,13 +2097,13 @@
         <v>24</v>
       </c>
       <c r="AH9" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AI9" t="n">
         <v>27</v>
       </c>
       <c r="AJ9" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK9" t="n">
         <v>24</v>
@@ -2048,25 +2115,25 @@
         <v>27</v>
       </c>
       <c r="AN9" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO9" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP9" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AQ9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AR9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AS9" t="n">
         <v>29</v>
       </c>
       <c r="AT9" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AU9" t="n">
         <v>26</v>
@@ -2081,13 +2148,13 @@
         <v>30</v>
       </c>
       <c r="AY9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA9" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BB9" t="n">
         <v>28</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-12-2011-12</t>
+          <t>2012-03-12</t>
         </is>
       </c>
     </row>
@@ -2203,7 +2270,7 @@
         <v>30</v>
       </c>
       <c r="AE10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF10" t="n">
         <v>16</v>
@@ -2218,7 +2285,7 @@
         <v>8</v>
       </c>
       <c r="AJ10" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AK10" t="n">
         <v>6</v>
@@ -2236,7 +2303,7 @@
         <v>25</v>
       </c>
       <c r="AP10" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AQ10" t="n">
         <v>14</v>
@@ -2251,10 +2318,10 @@
         <v>26</v>
       </c>
       <c r="AU10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AW10" t="n">
         <v>10</v>
@@ -2272,7 +2339,7 @@
         <v>28</v>
       </c>
       <c r="BB10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BC10" t="n">
         <v>21</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-12-2011-12</t>
+          <t>2012-03-12</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>-0.1</v>
       </c>
       <c r="AD11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE11" t="n">
         <v>14</v>
@@ -2412,13 +2479,13 @@
         <v>14</v>
       </c>
       <c r="AN11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO11" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AP11" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AQ11" t="n">
         <v>3</v>
@@ -2430,7 +2497,7 @@
         <v>18</v>
       </c>
       <c r="AT11" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AU11" t="n">
         <v>17</v>
@@ -2439,22 +2506,22 @@
         <v>14</v>
       </c>
       <c r="AW11" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AX11" t="n">
         <v>21</v>
       </c>
       <c r="AY11" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ11" t="n">
         <v>20</v>
       </c>
       <c r="BA11" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BB11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BC11" t="n">
         <v>18</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-12-2011-12</t>
+          <t>2012-03-12</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>2.6</v>
       </c>
       <c r="AD12" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AE12" t="n">
         <v>10</v>
@@ -2585,7 +2652,7 @@
         <v>19</v>
       </c>
       <c r="AK12" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL12" t="n">
         <v>22</v>
@@ -2594,10 +2661,10 @@
         <v>22</v>
       </c>
       <c r="AN12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AP12" t="n">
         <v>4</v>
@@ -2618,7 +2685,7 @@
         <v>30</v>
       </c>
       <c r="AV12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AW12" t="n">
         <v>9</v>
@@ -2630,13 +2697,13 @@
         <v>27</v>
       </c>
       <c r="AZ12" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BA12" t="n">
         <v>6</v>
       </c>
       <c r="BB12" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BC12" t="n">
         <v>8</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-12-2011-12</t>
+          <t>2012-03-12</t>
         </is>
       </c>
     </row>
@@ -2668,106 +2735,106 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E13" t="n">
         <v>23</v>
       </c>
       <c r="F13" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G13" t="n">
-        <v>0.575</v>
+        <v>0.59</v>
       </c>
       <c r="H13" t="n">
         <v>48.5</v>
       </c>
       <c r="I13" t="n">
-        <v>36.6</v>
+        <v>36.7</v>
       </c>
       <c r="J13" t="n">
         <v>81.40000000000001</v>
       </c>
       <c r="K13" t="n">
-        <v>0.45</v>
+        <v>0.452</v>
       </c>
       <c r="L13" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="M13" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="N13" t="n">
-        <v>0.357</v>
+        <v>0.361</v>
       </c>
       <c r="O13" t="n">
-        <v>17</v>
+        <v>16.9</v>
       </c>
       <c r="P13" t="n">
-        <v>24.4</v>
+        <v>24.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.695</v>
+        <v>0.6909999999999999</v>
       </c>
       <c r="R13" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="S13" t="n">
-        <v>30.7</v>
+        <v>30.9</v>
       </c>
       <c r="T13" t="n">
-        <v>43</v>
+        <v>42.9</v>
       </c>
       <c r="U13" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="V13" t="n">
-        <v>13.8</v>
+        <v>13.6</v>
       </c>
       <c r="W13" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="X13" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Y13" t="n">
         <v>4.3</v>
       </c>
       <c r="Z13" t="n">
-        <v>21.7</v>
+        <v>21.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="AB13" t="n">
-        <v>97.90000000000001</v>
+        <v>98.2</v>
       </c>
       <c r="AC13" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="AD13" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AE13" t="n">
         <v>10</v>
       </c>
       <c r="AF13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG13" t="n">
         <v>9</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>11</v>
       </c>
       <c r="AH13" t="n">
         <v>5</v>
       </c>
       <c r="AI13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ13" t="n">
         <v>16</v>
       </c>
       <c r="AK13" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AL13" t="n">
         <v>5</v>
@@ -2776,10 +2843,10 @@
         <v>5</v>
       </c>
       <c r="AN13" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AO13" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AP13" t="n">
         <v>9</v>
@@ -2788,10 +2855,10 @@
         <v>29</v>
       </c>
       <c r="AR13" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AS13" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AT13" t="n">
         <v>11</v>
@@ -2806,7 +2873,7 @@
         <v>15</v>
       </c>
       <c r="AX13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AY13" t="n">
         <v>3</v>
@@ -2818,7 +2885,7 @@
         <v>4</v>
       </c>
       <c r="BB13" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="BC13" t="n">
         <v>12</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-12-2011-12</t>
+          <t>2012-03-12</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2995,7 @@
         <v>2.3</v>
       </c>
       <c r="AD14" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AE14" t="n">
         <v>6</v>
@@ -2940,16 +3007,16 @@
         <v>6</v>
       </c>
       <c r="AH14" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AI14" t="n">
         <v>16</v>
       </c>
       <c r="AJ14" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL14" t="n">
         <v>24</v>
@@ -2958,7 +3025,7 @@
         <v>18</v>
       </c>
       <c r="AN14" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AO14" t="n">
         <v>10</v>
@@ -2976,16 +3043,16 @@
         <v>1</v>
       </c>
       <c r="AT14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AU14" t="n">
         <v>12</v>
       </c>
       <c r="AV14" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AW14" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AX14" t="n">
         <v>12</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-12-2011-12</t>
+          <t>2012-03-12</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>2.2</v>
       </c>
       <c r="AD15" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AE15" t="n">
         <v>8</v>
@@ -3122,16 +3189,16 @@
         <v>7</v>
       </c>
       <c r="AH15" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AI15" t="n">
         <v>13</v>
       </c>
       <c r="AJ15" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK15" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AL15" t="n">
         <v>29</v>
@@ -3152,7 +3219,7 @@
         <v>13</v>
       </c>
       <c r="AR15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AS15" t="n">
         <v>23</v>
@@ -3161,7 +3228,7 @@
         <v>23</v>
       </c>
       <c r="AU15" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AV15" t="n">
         <v>16</v>
@@ -3173,13 +3240,13 @@
         <v>13</v>
       </c>
       <c r="AY15" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB15" t="n">
         <v>20</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-12-2011-12</t>
+          <t>2012-03-12</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>8.9</v>
       </c>
       <c r="AD16" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AE16" t="n">
         <v>3</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-12-2011-12</t>
+          <t>2012-03-12</t>
         </is>
       </c>
     </row>
@@ -3396,58 +3463,58 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E17" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F17" t="n">
         <v>24</v>
       </c>
       <c r="G17" t="n">
-        <v>0.429</v>
+        <v>0.415</v>
       </c>
       <c r="H17" t="n">
         <v>48.1</v>
       </c>
       <c r="I17" t="n">
-        <v>36.5</v>
+        <v>36.3</v>
       </c>
       <c r="J17" t="n">
-        <v>85.2</v>
+        <v>85</v>
       </c>
       <c r="K17" t="n">
-        <v>0.428</v>
+        <v>0.427</v>
       </c>
       <c r="L17" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="M17" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="N17" t="n">
-        <v>0.337</v>
+        <v>0.335</v>
       </c>
       <c r="O17" t="n">
-        <v>16.8</v>
+        <v>17</v>
       </c>
       <c r="P17" t="n">
-        <v>21.2</v>
+        <v>21.4</v>
       </c>
       <c r="Q17" t="n">
         <v>0.794</v>
       </c>
       <c r="R17" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="S17" t="n">
-        <v>28.5</v>
+        <v>28.4</v>
       </c>
       <c r="T17" t="n">
         <v>41.3</v>
       </c>
       <c r="U17" t="n">
-        <v>22.2</v>
+        <v>21.9</v>
       </c>
       <c r="V17" t="n">
         <v>14.2</v>
@@ -3456,34 +3523,34 @@
         <v>8.1</v>
       </c>
       <c r="X17" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Y17" t="n">
         <v>4.9</v>
       </c>
       <c r="Z17" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="AA17" t="n">
         <v>19.6</v>
       </c>
-      <c r="AA17" t="n">
-        <v>19.5</v>
-      </c>
       <c r="AB17" t="n">
-        <v>96.59999999999999</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="AC17" t="n">
-        <v>-1.9</v>
+        <v>-2.1</v>
       </c>
       <c r="AD17" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AE17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG17" t="n">
         <v>22</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>21</v>
       </c>
       <c r="AH17" t="n">
         <v>26</v>
@@ -3495,7 +3562,7 @@
         <v>2</v>
       </c>
       <c r="AK17" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AL17" t="n">
         <v>13</v>
@@ -3504,13 +3571,13 @@
         <v>12</v>
       </c>
       <c r="AN17" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO17" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AP17" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ17" t="n">
         <v>2</v>
@@ -3525,25 +3592,25 @@
         <v>25</v>
       </c>
       <c r="AU17" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV17" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AX17" t="n">
         <v>18</v>
       </c>
       <c r="AY17" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ17" t="n">
         <v>15</v>
       </c>
       <c r="BA17" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BB17" t="n">
         <v>13</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-12-2011-12</t>
+          <t>2012-03-12</t>
         </is>
       </c>
     </row>
@@ -3578,88 +3645,88 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E18" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F18" t="n">
         <v>21</v>
       </c>
       <c r="G18" t="n">
-        <v>0.512</v>
+        <v>0.5</v>
       </c>
       <c r="H18" t="n">
         <v>48.1</v>
       </c>
       <c r="I18" t="n">
-        <v>35.6</v>
+        <v>35.2</v>
       </c>
       <c r="J18" t="n">
-        <v>81.5</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K18" t="n">
-        <v>0.436</v>
+        <v>0.433</v>
       </c>
       <c r="L18" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="M18" t="n">
         <v>20.2</v>
       </c>
       <c r="N18" t="n">
-        <v>0.341</v>
+        <v>0.334</v>
       </c>
       <c r="O18" t="n">
-        <v>20.1</v>
+        <v>20.3</v>
       </c>
       <c r="P18" t="n">
-        <v>26.2</v>
+        <v>26.3</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.768</v>
+        <v>0.771</v>
       </c>
       <c r="R18" t="n">
         <v>12.5</v>
       </c>
       <c r="S18" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="T18" t="n">
-        <v>44.2</v>
+        <v>44.3</v>
       </c>
       <c r="U18" t="n">
-        <v>19.3</v>
+        <v>19</v>
       </c>
       <c r="V18" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="W18" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="X18" t="n">
         <v>4.1</v>
       </c>
       <c r="Y18" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Z18" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="AA18" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="AB18" t="n">
-        <v>98.2</v>
+        <v>97.5</v>
       </c>
       <c r="AC18" t="n">
         <v>1</v>
       </c>
       <c r="AD18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE18" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AF18" t="n">
         <v>16</v>
@@ -3671,37 +3738,37 @@
         <v>27</v>
       </c>
       <c r="AI18" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ18" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AK18" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AL18" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM18" t="n">
         <v>11</v>
       </c>
-      <c r="AM18" t="n">
-        <v>10</v>
-      </c>
       <c r="AN18" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AP18" t="n">
         <v>3</v>
       </c>
       <c r="AQ18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AR18" t="n">
         <v>7</v>
       </c>
       <c r="AS18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AT18" t="n">
         <v>3</v>
@@ -3710,16 +3777,16 @@
         <v>25</v>
       </c>
       <c r="AV18" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AW18" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AX18" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AY18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ18" t="n">
         <v>8</v>
@@ -3728,7 +3795,7 @@
         <v>3</v>
       </c>
       <c r="BB18" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="BC18" t="n">
         <v>16</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-12-2011-12</t>
+          <t>2012-03-12</t>
         </is>
       </c>
     </row>
@@ -3760,58 +3827,58 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E19" t="n">
         <v>14</v>
       </c>
       <c r="F19" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G19" t="n">
-        <v>0.326</v>
+        <v>0.333</v>
       </c>
       <c r="H19" t="n">
         <v>48.1</v>
       </c>
       <c r="I19" t="n">
-        <v>33.7</v>
+        <v>33.6</v>
       </c>
       <c r="J19" t="n">
-        <v>79</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="K19" t="n">
-        <v>0.427</v>
+        <v>0.425</v>
       </c>
       <c r="L19" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="M19" t="n">
-        <v>24.1</v>
+        <v>24.3</v>
       </c>
       <c r="N19" t="n">
-        <v>0.348</v>
+        <v>0.35</v>
       </c>
       <c r="O19" t="n">
-        <v>17.1</v>
+        <v>17</v>
       </c>
       <c r="P19" t="n">
-        <v>22.3</v>
+        <v>22.1</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.768</v>
+        <v>0.769</v>
       </c>
       <c r="R19" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="S19" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="T19" t="n">
         <v>39.6</v>
       </c>
       <c r="U19" t="n">
-        <v>19.6</v>
+        <v>19.8</v>
       </c>
       <c r="V19" t="n">
         <v>15.5</v>
@@ -3823,28 +3890,28 @@
         <v>4.1</v>
       </c>
       <c r="Y19" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Z19" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="AA19" t="n">
         <v>20</v>
       </c>
       <c r="AB19" t="n">
-        <v>92.90000000000001</v>
+        <v>92.8</v>
       </c>
       <c r="AC19" t="n">
-        <v>-6.4</v>
+        <v>-6.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE19" t="n">
         <v>25</v>
       </c>
       <c r="AF19" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG19" t="n">
         <v>26</v>
@@ -3871,13 +3938,13 @@
         <v>13</v>
       </c>
       <c r="AO19" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AP19" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AQ19" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AR19" t="n">
         <v>11</v>
@@ -3889,7 +3956,7 @@
         <v>29</v>
       </c>
       <c r="AU19" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AV19" t="n">
         <v>24</v>
@@ -3898,10 +3965,10 @@
         <v>22</v>
       </c>
       <c r="AX19" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AY19" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AZ19" t="n">
         <v>16</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-12-2011-12</t>
+          <t>2012-03-12</t>
         </is>
       </c>
     </row>
@@ -3942,28 +4009,28 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E20" t="n">
         <v>10</v>
       </c>
       <c r="F20" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G20" t="n">
-        <v>0.238</v>
+        <v>0.244</v>
       </c>
       <c r="H20" t="n">
         <v>48.2</v>
       </c>
       <c r="I20" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="J20" t="n">
         <v>78.90000000000001</v>
       </c>
       <c r="K20" t="n">
-        <v>0.438</v>
+        <v>0.439</v>
       </c>
       <c r="L20" t="n">
         <v>3.9</v>
@@ -3972,28 +4039,28 @@
         <v>12.1</v>
       </c>
       <c r="N20" t="n">
-        <v>0.32</v>
+        <v>0.318</v>
       </c>
       <c r="O20" t="n">
-        <v>15.3</v>
+        <v>15.5</v>
       </c>
       <c r="P20" t="n">
-        <v>20.4</v>
+        <v>20.7</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.751</v>
+        <v>0.75</v>
       </c>
       <c r="R20" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="S20" t="n">
-        <v>29.9</v>
+        <v>30</v>
       </c>
       <c r="T20" t="n">
-        <v>41.6</v>
+        <v>41.7</v>
       </c>
       <c r="U20" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="V20" t="n">
         <v>15.4</v>
@@ -4005,22 +4072,22 @@
         <v>4.6</v>
       </c>
       <c r="Y20" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="Z20" t="n">
-        <v>20.5</v>
+        <v>20.7</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.4</v>
+        <v>18.6</v>
       </c>
       <c r="AB20" t="n">
-        <v>88.2</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="AC20" t="n">
         <v>-5.2</v>
       </c>
       <c r="AD20" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AE20" t="n">
         <v>28</v>
@@ -4032,7 +4099,7 @@
         <v>28</v>
       </c>
       <c r="AH20" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AI20" t="n">
         <v>25</v>
@@ -4041,7 +4108,7 @@
         <v>26</v>
       </c>
       <c r="AK20" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL20" t="n">
         <v>28</v>
@@ -4050,34 +4117,34 @@
         <v>28</v>
       </c>
       <c r="AN20" t="n">
+        <v>25</v>
+      </c>
+      <c r="AO20" t="n">
         <v>26</v>
       </c>
-      <c r="AO20" t="n">
-        <v>28</v>
-      </c>
       <c r="AP20" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AQ20" t="n">
         <v>18</v>
       </c>
       <c r="AR20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AS20" t="n">
         <v>21</v>
       </c>
       <c r="AT20" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AU20" t="n">
         <v>20</v>
       </c>
       <c r="AV20" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW20" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AX20" t="n">
         <v>22</v>
@@ -4086,10 +4153,10 @@
         <v>25</v>
       </c>
       <c r="AZ20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BA20" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="BB20" t="n">
         <v>29</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-12-2011-12</t>
+          <t>2012-03-12</t>
         </is>
       </c>
     </row>
@@ -4124,16 +4191,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E21" t="n">
         <v>18</v>
       </c>
       <c r="F21" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G21" t="n">
-        <v>0.429</v>
+        <v>0.439</v>
       </c>
       <c r="H21" t="n">
         <v>48.4</v>
@@ -4145,25 +4212,25 @@
         <v>81.3</v>
       </c>
       <c r="K21" t="n">
-        <v>0.436</v>
+        <v>0.435</v>
       </c>
       <c r="L21" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="M21" t="n">
-        <v>22</v>
+        <v>22.2</v>
       </c>
       <c r="N21" t="n">
-        <v>0.312</v>
+        <v>0.313</v>
       </c>
       <c r="O21" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="P21" t="n">
-        <v>25.2</v>
+        <v>25.1</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.752</v>
+        <v>0.753</v>
       </c>
       <c r="R21" t="n">
         <v>11.2</v>
@@ -4172,19 +4239,19 @@
         <v>30.6</v>
       </c>
       <c r="T21" t="n">
-        <v>41.8</v>
+        <v>41.9</v>
       </c>
       <c r="U21" t="n">
         <v>19.8</v>
       </c>
       <c r="V21" t="n">
-        <v>16.6</v>
+        <v>16.7</v>
       </c>
       <c r="W21" t="n">
-        <v>9.5</v>
+        <v>9.6</v>
       </c>
       <c r="X21" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="Y21" t="n">
         <v>5.1</v>
@@ -4196,37 +4263,37 @@
         <v>22.5</v>
       </c>
       <c r="AB21" t="n">
-        <v>96.7</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="AD21" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AE21" t="n">
         <v>20</v>
       </c>
       <c r="AF21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG21" t="n">
         <v>21</v>
       </c>
       <c r="AH21" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AI21" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ21" t="n">
         <v>18</v>
       </c>
       <c r="AK21" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL21" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AM21" t="n">
         <v>4</v>
@@ -4241,7 +4308,7 @@
         <v>7</v>
       </c>
       <c r="AQ21" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AR21" t="n">
         <v>17</v>
@@ -4250,10 +4317,10 @@
         <v>17</v>
       </c>
       <c r="AT21" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AU21" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AV21" t="n">
         <v>29</v>
@@ -4262,10 +4329,10 @@
         <v>2</v>
       </c>
       <c r="AX21" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AY21" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AZ21" t="n">
         <v>24</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-12-2011-12</t>
+          <t>2012-03-12</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>6.2</v>
       </c>
       <c r="AD22" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AE22" t="n">
         <v>2</v>
@@ -4408,10 +4475,10 @@
         <v>2</v>
       </c>
       <c r="AL22" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM22" t="n">
         <v>10</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>11</v>
       </c>
       <c r="AN22" t="n">
         <v>14</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-12-2011-12</t>
+          <t>2012-03-12</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>2.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE23" t="n">
         <v>4</v>
@@ -4578,7 +4645,7 @@
         <v>5</v>
       </c>
       <c r="AH23" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AI23" t="n">
         <v>28</v>
@@ -4587,7 +4654,7 @@
         <v>29</v>
       </c>
       <c r="AK23" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL23" t="n">
         <v>1</v>
@@ -4599,7 +4666,7 @@
         <v>4</v>
       </c>
       <c r="AO23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP23" t="n">
         <v>10</v>
@@ -4626,7 +4693,7 @@
         <v>28</v>
       </c>
       <c r="AX23" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AY23" t="n">
         <v>6</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-12-2011-12</t>
+          <t>2012-03-12</t>
         </is>
       </c>
     </row>
@@ -4748,19 +4815,19 @@
         <v>7.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE24" t="n">
         <v>6</v>
       </c>
       <c r="AF24" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG24" t="n">
         <v>8</v>
       </c>
       <c r="AH24" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AI24" t="n">
         <v>5</v>
@@ -4808,7 +4875,7 @@
         <v>6</v>
       </c>
       <c r="AX24" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AY24" t="n">
         <v>9</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-12-2011-12</t>
+          <t>2012-03-12</t>
         </is>
       </c>
     </row>
@@ -4852,67 +4919,67 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E25" t="n">
         <v>19</v>
       </c>
       <c r="F25" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G25" t="n">
-        <v>0.463</v>
+        <v>0.475</v>
       </c>
       <c r="H25" t="n">
         <v>48</v>
       </c>
       <c r="I25" t="n">
-        <v>36.9</v>
+        <v>36.6</v>
       </c>
       <c r="J25" t="n">
-        <v>81.8</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="K25" t="n">
-        <v>0.451</v>
+        <v>0.449</v>
       </c>
       <c r="L25" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="M25" t="n">
         <v>19.2</v>
       </c>
       <c r="N25" t="n">
-        <v>0.338</v>
+        <v>0.335</v>
       </c>
       <c r="O25" t="n">
-        <v>15.4</v>
+        <v>15.2</v>
       </c>
       <c r="P25" t="n">
-        <v>20.2</v>
+        <v>20</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.764</v>
+        <v>0.763</v>
       </c>
       <c r="R25" t="n">
-        <v>10.6</v>
+        <v>10.7</v>
       </c>
       <c r="S25" t="n">
-        <v>31.6</v>
+        <v>31.7</v>
       </c>
       <c r="T25" t="n">
-        <v>42.2</v>
+        <v>42.4</v>
       </c>
       <c r="U25" t="n">
         <v>22.4</v>
       </c>
       <c r="V25" t="n">
-        <v>14.5</v>
+        <v>14.7</v>
       </c>
       <c r="W25" t="n">
         <v>6.8</v>
       </c>
       <c r="X25" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Y25" t="n">
         <v>4.5</v>
@@ -4921,37 +4988,37 @@
         <v>18.8</v>
       </c>
       <c r="AA25" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="AB25" t="n">
-        <v>95.59999999999999</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="AC25" t="n">
         <v>-1.7</v>
       </c>
       <c r="AD25" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AE25" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF25" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AG25" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AH25" t="n">
         <v>29</v>
       </c>
       <c r="AI25" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AJ25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK25" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AL25" t="n">
         <v>17</v>
@@ -4963,16 +5030,16 @@
         <v>16</v>
       </c>
       <c r="AO25" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AP25" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AQ25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AR25" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AS25" t="n">
         <v>11</v>
@@ -4984,13 +5051,13 @@
         <v>4</v>
       </c>
       <c r="AV25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AW25" t="n">
         <v>27</v>
       </c>
       <c r="AX25" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY25" t="n">
         <v>7</v>
@@ -5002,7 +5069,7 @@
         <v>20</v>
       </c>
       <c r="BB25" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BC25" t="n">
         <v>20</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-12-2011-12</t>
+          <t>2012-03-12</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>3.4</v>
       </c>
       <c r="AD26" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AE26" t="n">
         <v>17</v>
@@ -5130,10 +5197,10 @@
         <v>9</v>
       </c>
       <c r="AJ26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AK26" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL26" t="n">
         <v>15</v>
@@ -5157,16 +5224,16 @@
         <v>19</v>
       </c>
       <c r="AS26" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AT26" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AU26" t="n">
         <v>9</v>
       </c>
       <c r="AV26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AW26" t="n">
         <v>7</v>
@@ -5184,7 +5251,7 @@
         <v>9</v>
       </c>
       <c r="BB26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BC26" t="n">
         <v>6</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-12-2011-12</t>
+          <t>2012-03-12</t>
         </is>
       </c>
     </row>
@@ -5294,13 +5361,13 @@
         <v>-6.7</v>
       </c>
       <c r="AD27" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AE27" t="n">
         <v>25</v>
       </c>
       <c r="AF27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG27" t="n">
         <v>25</v>
@@ -5324,7 +5391,7 @@
         <v>9</v>
       </c>
       <c r="AN27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO27" t="n">
         <v>9</v>
@@ -5360,7 +5427,7 @@
         <v>29</v>
       </c>
       <c r="AZ27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA27" t="n">
         <v>12</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-12-2011-12</t>
+          <t>2012-03-12</t>
         </is>
       </c>
     </row>
@@ -5398,88 +5465,88 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E28" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F28" t="n">
         <v>13</v>
       </c>
       <c r="G28" t="n">
-        <v>0.675</v>
+        <v>0.667</v>
       </c>
       <c r="H28" t="n">
         <v>48.5</v>
       </c>
       <c r="I28" t="n">
-        <v>38.1</v>
+        <v>37.8</v>
       </c>
       <c r="J28" t="n">
-        <v>82.2</v>
+        <v>82</v>
       </c>
       <c r="K28" t="n">
-        <v>0.463</v>
+        <v>0.461</v>
       </c>
       <c r="L28" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="M28" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="N28" t="n">
-        <v>0.395</v>
+        <v>0.396</v>
       </c>
       <c r="O28" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="P28" t="n">
         <v>21.8</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.721</v>
+        <v>0.725</v>
       </c>
       <c r="R28" t="n">
-        <v>10</v>
+        <v>9.9</v>
       </c>
       <c r="S28" t="n">
-        <v>31.8</v>
+        <v>31.7</v>
       </c>
       <c r="T28" t="n">
-        <v>41.7</v>
+        <v>41.6</v>
       </c>
       <c r="U28" t="n">
-        <v>22.3</v>
+        <v>22.1</v>
       </c>
       <c r="V28" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="W28" t="n">
         <v>7</v>
       </c>
       <c r="X28" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Y28" t="n">
         <v>4.9</v>
       </c>
       <c r="Z28" t="n">
-        <v>17.2</v>
+        <v>17.3</v>
       </c>
       <c r="AA28" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="AB28" t="n">
-        <v>100</v>
+        <v>99.7</v>
       </c>
       <c r="AC28" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="AD28" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AE28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF28" t="n">
         <v>4</v>
@@ -5494,10 +5561,10 @@
         <v>4</v>
       </c>
       <c r="AJ28" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AK28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AL28" t="n">
         <v>3</v>
@@ -5509,7 +5576,7 @@
         <v>1</v>
       </c>
       <c r="AO28" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AP28" t="n">
         <v>19</v>
@@ -5521,10 +5588,10 @@
         <v>29</v>
       </c>
       <c r="AS28" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AT28" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AU28" t="n">
         <v>5</v>
@@ -5536,16 +5603,16 @@
         <v>23</v>
       </c>
       <c r="AX28" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AY28" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ28" t="n">
         <v>1</v>
       </c>
       <c r="BA28" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BB28" t="n">
         <v>4</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-12-2011-12</t>
+          <t>2012-03-12</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>-4</v>
       </c>
       <c r="AD29" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AE29" t="n">
         <v>27</v>
@@ -5670,7 +5737,7 @@
         <v>27</v>
       </c>
       <c r="AH29" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AI29" t="n">
         <v>26</v>
@@ -5679,7 +5746,7 @@
         <v>27</v>
       </c>
       <c r="AK29" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL29" t="n">
         <v>23</v>
@@ -5694,10 +5761,10 @@
         <v>17</v>
       </c>
       <c r="AP29" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ29" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AR29" t="n">
         <v>28</v>
@@ -5727,7 +5794,7 @@
         <v>30</v>
       </c>
       <c r="BA29" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BB29" t="n">
         <v>27</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-12-2011-12</t>
+          <t>2012-03-12</t>
         </is>
       </c>
     </row>
@@ -5762,37 +5829,37 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E30" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F30" t="n">
         <v>21</v>
       </c>
       <c r="G30" t="n">
-        <v>0.488</v>
+        <v>0.475</v>
       </c>
       <c r="H30" t="n">
         <v>48.4</v>
       </c>
       <c r="I30" t="n">
-        <v>37.3</v>
+        <v>37.2</v>
       </c>
       <c r="J30" t="n">
-        <v>82.09999999999999</v>
+        <v>82.3</v>
       </c>
       <c r="K30" t="n">
-        <v>0.454</v>
+        <v>0.452</v>
       </c>
       <c r="L30" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="M30" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="N30" t="n">
-        <v>0.306</v>
+        <v>0.299</v>
       </c>
       <c r="O30" t="n">
         <v>18.7</v>
@@ -5804,13 +5871,13 @@
         <v>0.753</v>
       </c>
       <c r="R30" t="n">
-        <v>12.6</v>
+        <v>12.8</v>
       </c>
       <c r="S30" t="n">
         <v>29.7</v>
       </c>
       <c r="T30" t="n">
-        <v>42.3</v>
+        <v>42.5</v>
       </c>
       <c r="U30" t="n">
         <v>21</v>
@@ -5822,7 +5889,7 @@
         <v>8.300000000000001</v>
       </c>
       <c r="X30" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="Y30" t="n">
         <v>5.9</v>
@@ -5831,25 +5898,25 @@
         <v>22</v>
       </c>
       <c r="AA30" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AB30" t="n">
-        <v>96.90000000000001</v>
+        <v>96.7</v>
       </c>
       <c r="AC30" t="n">
-        <v>-0.9</v>
+        <v>-1.3</v>
       </c>
       <c r="AD30" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AE30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AF30" t="n">
         <v>16</v>
       </c>
       <c r="AG30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AH30" t="n">
         <v>9</v>
@@ -5858,10 +5925,10 @@
         <v>7</v>
       </c>
       <c r="AJ30" t="n">
+        <v>7</v>
+      </c>
+      <c r="AK30" t="n">
         <v>9</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>8</v>
       </c>
       <c r="AL30" t="n">
         <v>30</v>
@@ -5870,7 +5937,7 @@
         <v>29</v>
       </c>
       <c r="AN30" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AO30" t="n">
         <v>7</v>
@@ -5879,7 +5946,7 @@
         <v>8</v>
       </c>
       <c r="AQ30" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AR30" t="n">
         <v>5</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-12-2011-12</t>
+          <t>2012-03-12</t>
         </is>
       </c>
     </row>
@@ -5944,25 +6011,25 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E31" t="n">
         <v>9</v>
       </c>
       <c r="F31" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G31" t="n">
-        <v>0.225</v>
+        <v>0.231</v>
       </c>
       <c r="H31" t="n">
         <v>48.1</v>
       </c>
       <c r="I31" t="n">
-        <v>36.4</v>
+        <v>36.3</v>
       </c>
       <c r="J31" t="n">
-        <v>83.90000000000001</v>
+        <v>83.8</v>
       </c>
       <c r="K31" t="n">
         <v>0.433</v>
@@ -5974,16 +6041,16 @@
         <v>15.9</v>
       </c>
       <c r="N31" t="n">
-        <v>0.322</v>
+        <v>0.318</v>
       </c>
       <c r="O31" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="P31" t="n">
-        <v>22.1</v>
+        <v>22.3</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.718</v>
+        <v>0.717</v>
       </c>
       <c r="R31" t="n">
         <v>12.2</v>
@@ -5995,34 +6062,34 @@
         <v>42</v>
       </c>
       <c r="U31" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="V31" t="n">
-        <v>15.3</v>
+        <v>15.5</v>
       </c>
       <c r="W31" t="n">
         <v>8.1</v>
       </c>
       <c r="X31" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="Y31" t="n">
         <v>4.9</v>
       </c>
       <c r="Z31" t="n">
-        <v>21.7</v>
+        <v>21.9</v>
       </c>
       <c r="AA31" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="AB31" t="n">
-        <v>93.7</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="AC31" t="n">
-        <v>-8.5</v>
+        <v>-8.4</v>
       </c>
       <c r="AD31" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AE31" t="n">
         <v>29</v>
@@ -6052,19 +6119,19 @@
         <v>21</v>
       </c>
       <c r="AN31" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AO31" t="n">
         <v>19</v>
       </c>
       <c r="AP31" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AQ31" t="n">
         <v>27</v>
       </c>
       <c r="AR31" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AS31" t="n">
         <v>24</v>
@@ -6076,22 +6143,22 @@
         <v>27</v>
       </c>
       <c r="AV31" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AW31" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AX31" t="n">
         <v>2</v>
       </c>
       <c r="AY31" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AZ31" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BA31" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BB31" t="n">
         <v>23</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-12-2011-12</t>
+          <t>2012-03-12</t>
         </is>
       </c>
     </row>
